--- a/public/templates/purchase_request_template.xlsx
+++ b/public/templates/purchase_request_template.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Live System\dilg4a_portal\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A68999-E07A-45AC-9412-C5F00A7E43FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A9739-0F74-4AC9-A5AF-486032B46AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Appendix 60</t>
   </si>
@@ -95,13 +95,7 @@
     <t>Printed Name :</t>
   </si>
   <si>
-    <t>GILBERTO L. TUMAMAC</t>
-  </si>
-  <si>
     <t>Designation :</t>
-  </si>
-  <si>
-    <t>OIC - LGMED Chief</t>
   </si>
   <si>
     <t>Regional Director</t>
@@ -117,9 +111,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00;[Red]#,##0.00"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -447,9 +438,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -458,6 +446,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -573,9 +564,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -613,7 +604,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -719,7 +710,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -861,7 +852,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -872,35 +863,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="42.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.54296875" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="E1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="56"/>
     </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A3" s="57"/>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -908,9 +899,9 @@
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
     </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -918,7 +909,7 @@
       <c r="E4" s="57"/>
       <c r="F4" s="57"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="58"/>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
@@ -926,7 +917,7 @@
       <c r="E5" s="58"/>
       <c r="F5" s="58"/>
     </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -940,7 +931,7 @@
       <c r="E6" s="59"/>
       <c r="F6" s="59"/>
     </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -952,7 +943,7 @@
       </c>
       <c r="F7" s="55"/>
     </row>
-    <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="50"/>
       <c r="B8" s="51"/>
       <c r="C8" s="9" t="s">
@@ -962,7 +953,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="52" t="s">
         <v>7</v>
       </c>
@@ -982,7 +973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="53"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -990,7 +981,7 @@
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
     </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -998,7 +989,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
@@ -1006,7 +997,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -1014,7 +1005,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
@@ -1022,7 +1013,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
@@ -1030,7 +1021,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
@@ -1038,7 +1029,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
@@ -1046,7 +1037,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -1054,7 +1045,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
@@ -1062,7 +1053,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -1070,7 +1061,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -1078,203 +1069,95 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-    </row>
-    <row r="35" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23" t="s">
+    <row r="22" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="21"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="24"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="40"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="37"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="42"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="37"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="42"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="38"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="43"/>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="25"/>
-      <c r="B40" s="44" t="s">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="37"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="37"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="38"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="24"/>
+      <c r="B27" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="45" t="s">
+      <c r="C27" s="44"/>
+      <c r="D27" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="46"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="26" t="s">
+      <c r="E27" s="45"/>
+      <c r="F27" s="46"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="48"/>
-      <c r="F41" s="49"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="49"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
-    </row>
-    <row r="43" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="33"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -1290,20 +1173,20 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="B36:F39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="68" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/templates/purchase_request_template.xlsx
+++ b/public/templates/purchase_request_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Live System\dilg4a_portal\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64A9739-0F74-4AC9-A5AF-486032B46AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E89D23-403C-40CB-9E23-27431D458316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,10 @@
     <t>Regional Director</t>
   </si>
   <si>
-    <t>ARIEL O. IGLESIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">PURCHASE REQUEST </t>
+  </si>
+  <si>
+    <t>ARIEL O. IGLESIA, CESO III</t>
   </si>
 </sst>
 </file>
@@ -450,6 +450,87 @@
     <xf numFmtId="4" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -460,91 +541,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,58 +866,58 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="42.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.08984375" customWidth="1"/>
-    <col min="6" max="6" width="18.36328125" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="56"/>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.4">
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="58"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-    </row>
-    <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -925,27 +925,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
       <c r="D7" s="8"/>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="55"/>
-    </row>
-    <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
+      <c r="F7" s="29"/>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="9" t="s">
         <v>6</v>
       </c>
@@ -953,35 +953,35 @@
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="52" t="s">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="38" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="53"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
@@ -989,7 +989,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="18"/>
       <c r="C12" s="19"/>
@@ -997,7 +997,7 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="18"/>
       <c r="C13" s="19"/>
@@ -1005,7 +1005,7 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="18"/>
       <c r="C14" s="19"/>
@@ -1013,7 +1013,7 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="18"/>
       <c r="C15" s="19"/>
@@ -1021,7 +1021,7 @@
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="18"/>
       <c r="C16" s="19"/>
@@ -1029,7 +1029,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="18"/>
       <c r="C17" s="19"/>
@@ -1037,7 +1037,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="18"/>
       <c r="C18" s="19"/>
@@ -1045,7 +1045,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="18"/>
       <c r="C19" s="19"/>
@@ -1053,7 +1053,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="19"/>
@@ -1061,7 +1061,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="18"/>
       <c r="C21" s="19"/>
@@ -1069,7 +1069,7 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
@@ -1079,112 +1079,112 @@
       </c>
       <c r="F22" s="27"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="37"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="37"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="42"/>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="38"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="43"/>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="46"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45" t="s">
+      <c r="C27" s="49"/>
+      <c r="D27" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="45"/>
-      <c r="F27" s="46"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="50"/>
+      <c r="F27" s="51"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="30"/>
-    </row>
-    <row r="30" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="56"/>
+      <c r="F29" s="57"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32" t="s">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="33"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="23">
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B23:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B23:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
